--- a/GATEWAY/A1#111HITECHSPAXX/Hi.Tech/AmbWeb/2.1.0/report_checklist.xlsx
+++ b/GATEWAY/A1#111HITECHSPAXX/Hi.Tech/AmbWeb/2.1.0/report_checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" state="visible" r:id="rId2"/>
@@ -1066,7 +1066,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1136,12 +1136,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1276,7 +1270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1417,14 +1411,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1536,11 +1522,11 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2614,7 +2600,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3719,15 +3705,15 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
       <selection pane="bottomRight" activeCell="B169" activeCellId="0" sqref="B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.86"/>
@@ -5035,13 +5021,13 @@
       <c r="M55" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="N55" s="35" t="s">
+      <c r="N55" s="30" t="s">
         <v>62</v>
       </c>
       <c r="O55" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="P55" s="35" t="s">
+      <c r="P55" s="30" t="s">
         <v>63</v>
       </c>
       <c r="Q55" s="30"/>
@@ -7219,7 +7205,7 @@
       <c r="C154" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D154" s="36" t="s">
+      <c r="D154" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E154" s="27" t="s">
@@ -7265,7 +7251,7 @@
       <c r="C155" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="36" t="s">
+      <c r="D155" s="26" t="s">
         <v>71</v>
       </c>
       <c r="E155" s="27" t="s">
@@ -7311,7 +7297,7 @@
       <c r="C156" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D156" s="36" t="s">
+      <c r="D156" s="26" t="s">
         <v>77</v>
       </c>
       <c r="E156" s="27" t="s">
@@ -7357,7 +7343,7 @@
       <c r="C157" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D157" s="36" t="s">
+      <c r="D157" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E157" s="27" t="s">
@@ -7511,7 +7497,7 @@
       <c r="C161" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D161" s="36" t="s">
+      <c r="D161" s="26" t="s">
         <v>95</v>
       </c>
       <c r="E161" s="27" t="s">
@@ -7545,7 +7531,7 @@
       <c r="O161" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P161" s="35" t="s">
+      <c r="P161" s="30" t="s">
         <v>101</v>
       </c>
       <c r="Q161" s="30"/>
@@ -7565,7 +7551,7 @@
       <c r="C162" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D162" s="36" t="s">
+      <c r="D162" s="26" t="s">
         <v>102</v>
       </c>
       <c r="E162" s="27" t="s">
@@ -7599,7 +7585,7 @@
       <c r="O162" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P162" s="35" t="s">
+      <c r="P162" s="30" t="s">
         <v>101</v>
       </c>
       <c r="Q162" s="30"/>
@@ -7695,7 +7681,7 @@
       <c r="C165" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D165" s="36" t="s">
+      <c r="D165" s="26" t="s">
         <v>114</v>
       </c>
       <c r="E165" s="27" t="s">
@@ -7729,7 +7715,7 @@
       <c r="O165" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="P165" s="35" t="s">
+      <c r="P165" s="30" t="s">
         <v>120</v>
       </c>
       <c r="Q165" s="30"/>
@@ -7749,7 +7735,7 @@
       <c r="C166" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D166" s="36" t="s">
+      <c r="D166" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E166" s="27" t="s">
@@ -7803,7 +7789,7 @@
       <c r="C167" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D167" s="36" t="s">
+      <c r="D167" s="26" t="s">
         <v>128</v>
       </c>
       <c r="E167" s="27" t="s">
@@ -7895,7 +7881,7 @@
       <c r="C169" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D169" s="36" t="s">
+      <c r="D169" s="26" t="s">
         <v>138</v>
       </c>
       <c r="E169" s="27" t="s">
@@ -12775,7 +12761,7 @@
       <c r="C381" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D381" s="36" t="s">
+      <c r="D381" s="26" t="s">
         <v>182</v>
       </c>
       <c r="E381" s="27" t="s">
@@ -17531,10 +17517,9 @@
   </sheetData>
   <autoFilter ref="A9:T383">
     <filterColumn colId="2">
-      <filters>
-        <filter val=""/>
-        <filter val="RSA"/>
-      </filters>
+      <customFilters and="true">
+        <customFilter operator="equal" val="RSA"/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="1">
       <customFilters and="true">
@@ -17586,7 +17571,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -17616,10 +17601,10 @@
       <c r="B2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>196</v>
       </c>
     </row>
@@ -17630,10 +17615,10 @@
       <c r="B3" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>198</v>
       </c>
     </row>
@@ -17644,10 +17629,10 @@
       <c r="B4" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17658,10 +17643,10 @@
       <c r="B5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>202</v>
       </c>
     </row>
@@ -17672,10 +17657,10 @@
       <c r="B6" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17686,10 +17671,10 @@
       <c r="B7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="36" t="s">
         <v>206</v>
       </c>
     </row>
@@ -17700,10 +17685,10 @@
       <c r="B8" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>208</v>
       </c>
     </row>
@@ -17714,10 +17699,10 @@
       <c r="B9" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>210</v>
       </c>
     </row>
@@ -17728,10 +17713,10 @@
       <c r="B10" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -17742,10 +17727,10 @@
       <c r="B11" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="37" t="n">
+      <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>215</v>
       </c>
     </row>
@@ -17756,10 +17741,10 @@
       <c r="B12" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="37" t="n">
+      <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17770,10 +17755,10 @@
       <c r="B13" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="37" t="n">
+      <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>217</v>
       </c>
     </row>
@@ -17784,10 +17769,10 @@
       <c r="B14" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="37" t="n">
+      <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>218</v>
       </c>
     </row>
@@ -17798,10 +17783,10 @@
       <c r="B15" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="37" t="n">
+      <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="36" t="s">
         <v>219</v>
       </c>
     </row>
@@ -17812,10 +17797,10 @@
       <c r="B16" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="37" t="n">
+      <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>220</v>
       </c>
     </row>
@@ -17826,10 +17811,10 @@
       <c r="B17" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="37" t="n">
+      <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -17840,10 +17825,10 @@
       <c r="B18" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="37" t="n">
+      <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="36" t="s">
         <v>222</v>
       </c>
     </row>
@@ -17854,10 +17839,10 @@
       <c r="B19" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="37" t="n">
+      <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>224</v>
       </c>
     </row>
@@ -17868,10 +17853,10 @@
       <c r="B20" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="37" t="n">
+      <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>225</v>
       </c>
     </row>
@@ -17882,10 +17867,10 @@
       <c r="B21" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C21" s="37" t="n">
+      <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="36" t="s">
         <v>226</v>
       </c>
     </row>
@@ -17896,10 +17881,10 @@
       <c r="B22" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C22" s="37" t="n">
+      <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17910,10 +17895,10 @@
       <c r="B23" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="37" t="n">
+      <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17924,10 +17909,10 @@
       <c r="B24" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="37" t="n">
+      <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="36" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17938,10 +17923,10 @@
       <c r="B25" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="37" t="n">
+      <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="36" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17952,10 +17937,10 @@
       <c r="B26" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="37" t="n">
+      <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="36" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17966,10 +17951,10 @@
       <c r="B27" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="37" t="n">
+      <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="35" t="s">
         <v>233</v>
       </c>
     </row>
@@ -17980,10 +17965,10 @@
       <c r="B28" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C28" s="37" t="n">
+      <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="35" t="s">
         <v>234</v>
       </c>
     </row>
@@ -17994,10 +17979,10 @@
       <c r="B29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="37" t="n">
+      <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="37" t="s">
         <v>235</v>
       </c>
     </row>
@@ -18008,10 +17993,10 @@
       <c r="B30" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="37" t="n">
+      <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="35" t="s">
         <v>236</v>
       </c>
     </row>
@@ -18022,10 +18007,10 @@
       <c r="B31" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="37" t="n">
+      <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="36" t="s">
         <v>237</v>
       </c>
     </row>
@@ -18036,10 +18021,10 @@
       <c r="B32" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="37" t="n">
+      <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="36" t="s">
         <v>238</v>
       </c>
     </row>
@@ -18050,10 +18035,10 @@
       <c r="B33" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="37" t="n">
+      <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="36" t="s">
         <v>239</v>
       </c>
     </row>
@@ -18064,10 +18049,10 @@
       <c r="B34" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="37" t="n">
+      <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="36" t="s">
         <v>240</v>
       </c>
     </row>
@@ -18078,10 +18063,10 @@
       <c r="B35" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="37" t="n">
+      <c r="C35" s="35" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="37" t="n">
+      <c r="D35" s="35" t="n">
         <v>204</v>
       </c>
     </row>
@@ -18092,10 +18077,10 @@
       <c r="B36" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="37" t="n">
+      <c r="C36" s="35" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="37" t="n">
+      <c r="D36" s="35" t="n">
         <v>220</v>
       </c>
     </row>
@@ -18106,10 +18091,10 @@
       <c r="B37" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="37" t="n">
+      <c r="C37" s="35" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="38" t="n">
+      <c r="D37" s="36" t="n">
         <v>236</v>
       </c>
     </row>
@@ -18120,10 +18105,10 @@
       <c r="B38" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="37" t="n">
+      <c r="C38" s="35" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="37" t="n">
+      <c r="D38" s="35" t="n">
         <v>252</v>
       </c>
     </row>
@@ -18134,10 +18119,10 @@
       <c r="B39" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="37" t="n">
+      <c r="C39" s="35" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="38" t="n">
+      <c r="D39" s="36" t="n">
         <v>268</v>
       </c>
     </row>
@@ -18148,10 +18133,10 @@
       <c r="B40" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="37" t="n">
+      <c r="C40" s="35" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="38" t="n">
+      <c r="D40" s="36" t="n">
         <v>284</v>
       </c>
     </row>
@@ -18162,10 +18147,10 @@
       <c r="B41" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="37" t="n">
+      <c r="C41" s="35" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="38" t="n">
+      <c r="D41" s="36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -18176,10 +18161,10 @@
       <c r="B42" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C42" s="37" t="n">
+      <c r="C42" s="35" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="38" t="n">
+      <c r="D42" s="36" t="n">
         <v>316</v>
       </c>
     </row>
@@ -18190,10 +18175,10 @@
       <c r="B43" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="37" t="n">
+      <c r="C43" s="35" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="37" t="n">
+      <c r="D43" s="35" t="n">
         <v>207</v>
       </c>
     </row>
@@ -18204,10 +18189,10 @@
       <c r="B44" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="37" t="n">
+      <c r="C44" s="35" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="37" t="n">
+      <c r="D44" s="35" t="n">
         <v>223</v>
       </c>
     </row>
@@ -18218,10 +18203,10 @@
       <c r="B45" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C45" s="37" t="n">
+      <c r="C45" s="35" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="38" t="n">
+      <c r="D45" s="36" t="n">
         <v>239</v>
       </c>
     </row>
@@ -18232,10 +18217,10 @@
       <c r="B46" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C46" s="37" t="n">
+      <c r="C46" s="35" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="37" t="n">
+      <c r="D46" s="35" t="n">
         <v>255</v>
       </c>
     </row>
@@ -18246,10 +18231,10 @@
       <c r="B47" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="37" t="n">
+      <c r="C47" s="35" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="38" t="n">
+      <c r="D47" s="36" t="n">
         <v>271</v>
       </c>
     </row>
@@ -18260,10 +18245,10 @@
       <c r="B48" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="37" t="n">
+      <c r="C48" s="35" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="38" t="n">
+      <c r="D48" s="36" t="n">
         <v>287</v>
       </c>
     </row>
@@ -18274,10 +18259,10 @@
       <c r="B49" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C49" s="37" t="n">
+      <c r="C49" s="35" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="38" t="n">
+      <c r="D49" s="36" t="n">
         <v>303</v>
       </c>
     </row>
@@ -18288,10 +18273,10 @@
       <c r="B50" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C50" s="37" t="n">
+      <c r="C50" s="35" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="38" t="n">
+      <c r="D50" s="36" t="n">
         <v>319</v>
       </c>
     </row>
@@ -19267,7 +19252,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>

--- a/GATEWAY/A1#111HITECHSPAXX/Hi.Tech/AmbWeb/2.1.0/report_checklist.xlsx
+++ b/GATEWAY/A1#111HITECHSPAXX/Hi.Tech/AmbWeb/2.1.0/report_checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" state="visible" r:id="rId2"/>
@@ -640,7 +640,9 @@
     <t xml:space="preserve">[ERRORE-38| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]</t>
   </si>
   <si>
-    <t xml:space="preserve">L’operatore correggel’associazione priorità ricetta -priorità mappata per il cda</t>
+    <t xml:space="preserve">L’operatore corregge l’associazione priorità ricetta -priorità mappata per il cda.
+L’operatore ha a disposizione una maschera per poter associare le priorità ammissibili da Cda a titolo esemplificativo 'Normale’, ‘Preoperatoria’, ‘Urgente', ‘Emergenza’ rispetto a quelle registrate sul sistema ambulatoriale acquisite da prenotazione CUP.
+Il documento va nuovamente rigenerato.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -662,7 +664,7 @@
     <t xml:space="preserve">ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’operatore inserisce l’identificativo della ricetta e produce nuovamente il CDA</t>
+    <t xml:space="preserve">L’operatore inserisce l’identificativo della ricetta nell’applicativo ambulatoriale,il dato sarà acquisito nel nuovo CDA che verrà prodotto.L’operatore genera nuovamente il documento CDA con il dato presente</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -684,7 +686,8 @@
     <t xml:space="preserve">ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'effectiveTime'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’operatore corregge la mappatura della prestazione</t>
+    <t xml:space="preserve">L’operatore corregge la mappatura della prestazione.
+L’operatore ha a disposizione una maschera per poter correggere la codifica delle prestazioni. Il documento va nuovamente rigenerato.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -718,7 +721,7 @@
     <t xml:space="preserve">[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
-    <t xml:space="preserve">L’operatore inserisce il quesito se disponibile e rigenera il documento</t>
+    <t xml:space="preserve">L’operatore inserisce il quesito della ricetta nell’applicativo ambulatoriale,il dato sarà acquisito nel nuovo CDA che verrà prodotto.L’operatore genera nuovamente il documento CDA con il dato presente</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -1522,11 +1525,11 @@
   </sheetPr>
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2600,7 +2603,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3705,15 +3708,15 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B169" activeCellId="0" sqref="B169"/>
+      <selection pane="bottomRight" activeCell="P169" activeCellId="0" sqref="P169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.86"/>
@@ -17571,7 +17574,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -19252,7 +19255,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
